--- a/medicine/Œil et vue/ColorADD/ColorADD.xlsx
+++ b/medicine/Œil et vue/ColorADD/ColorADD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ColorADD est un système de pictogrammes pour identifier les couleurs, destiné aux daltoniens[1]. Il a été créé par le designer Miguel Neiva à Porto (Portugal), et est utilisé dans une bibliothèque[2], et sur des timbres poste[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ColorADD est un système de pictogrammes pour identifier les couleurs, destiné aux daltoniens. Il a été créé par le designer Miguel Neiva à Porto (Portugal), et est utilisé dans une bibliothèque, et sur des timbres poste.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour certains actes courants comme l'achat de vêtements ou de crayons de couleur l'identification verbale de la couleur d'un objet peut suppléer à la perception de sa nuance. Dans la signalisation, redoubler une identification colorée — zone verte — par un pictogramme rend l'indication accessible pour les 10 à 15% de la population avec une déficience de la vision des couleurs.
 Le système repose sur l'expérience du coloriage, aussi bien pour les daltoniens que pour les personnes dont la vision des couleurs est normale.
@@ -545,9 +559,11 @@
           <t>Autres sens de color add</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux États-unis, le « color-add process » désigne, dans la culture commerciale d'agrumes, la teinture de l'écorce d'un fruit pour lui donner l'apparence de celui mûri sur l'arbre[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-unis, le « color-add process » désigne, dans la culture commerciale d'agrumes, la teinture de l'écorce d'un fruit pour lui donner l'apparence de celui mûri sur l'arbre.
 </t>
         </is>
       </c>
